--- a/excel_task_newopt.xlsx
+++ b/excel_task_newopt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\laris\ev4eu_algorithms\opt_communities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D5A113-2EED-42B8-8405-1B86AA36BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8841B52-6031-4874-898B-3C714E28286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A03A3C32-E6CC-445A-8CB9-D8DD32D2ACA7}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="GeneralInfo" sheetId="5" r:id="rId1"/>
     <sheet name="Load" sheetId="1" r:id="rId2"/>
     <sheet name="Gen" sheetId="2" r:id="rId3"/>
-    <sheet name="BESS" sheetId="3" r:id="rId4"/>
-    <sheet name="EVS" sheetId="4" r:id="rId5"/>
+    <sheet name="Folha1" sheetId="6" r:id="rId4"/>
+    <sheet name="BESS" sheetId="3" r:id="rId5"/>
+    <sheet name="EVS" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="43">
   <si>
     <t>Load ID</t>
   </si>
@@ -182,6 +183,12 @@
   </si>
   <si>
     <t>Gen Type Id</t>
+  </si>
+  <si>
+    <t>Imp Max (kW)</t>
+  </si>
+  <si>
+    <t>Exp Max (kW)</t>
   </si>
 </sst>
 </file>
@@ -848,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F66917-7F07-41E4-BA24-A066F79FF387}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,6 +907,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -910,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571D45C6-0819-44D8-83FF-E911AEC27452}">
   <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4796,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FCD69E-F37C-4134-B033-CE38AC309020}">
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5122,99 +5145,99 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" ref="F5:AC5" si="0">$D$9*F4</f>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>40</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>60</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>70</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="0"/>
-        <v>79000</v>
+        <v>79</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" si="0"/>
-        <v>84000</v>
+        <v>84</v>
       </c>
       <c r="S5" s="11">
         <f t="shared" si="0"/>
-        <v>82000</v>
+        <v>82</v>
       </c>
       <c r="T5" s="11">
         <f t="shared" si="0"/>
-        <v>76000</v>
+        <v>76</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>75</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="0"/>
-        <v>74000</v>
+        <v>74</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>65</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -5340,7 +5363,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="10">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
@@ -5714,95 +5737,95 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" ref="G19:AC19" si="1">$D$23*G18</f>
+        <f>$D$23*G18</f>
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*H18</f>
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*I18</f>
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*J18</f>
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*K18</f>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*L18</f>
         <v>1</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*M18</f>
         <v>2</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*N18</f>
         <v>5</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*O18</f>
         <v>8</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*P18</f>
         <v>9</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*Q18</f>
         <v>8</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*R18</f>
         <v>8</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*S18</f>
         <v>7</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*T18</f>
         <v>7</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*U18</f>
         <v>8</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*V18</f>
         <v>6</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*W18</f>
         <v>4</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*X18</f>
         <v>2</v>
       </c>
       <c r="Y19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*Y18</f>
         <v>1</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*Z18</f>
         <v>0</v>
       </c>
       <c r="AA19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*AA18</f>
         <v>0</v>
       </c>
       <c r="AB19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*AB18</f>
         <v>0</v>
       </c>
       <c r="AC19" s="11">
-        <f t="shared" si="1"/>
+        <f>$D$23*AC18</f>
         <v>0</v>
       </c>
     </row>
@@ -6198,8 +6221,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="A18:A31"/>
-    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6207,11 +6230,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3E9AE1-7D61-442D-BC4E-7E21DEE4D5C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AC14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EF1887-B367-4A0D-89B3-9F7B6687B442}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6812,7 +6853,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="10">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
@@ -6927,7 +6968,7 @@
       </c>
       <c r="D14" s="10">
         <f>0.85*D11</f>
-        <v>850</v>
+        <v>8.5</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
@@ -6966,7 +7007,7 @@
       </c>
       <c r="D15" s="10">
         <f>0.15*D11</f>
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="13"/>
@@ -7082,12 +7123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55289A4E-AA87-4746-80EF-3E4199031D27}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7635,7 +7676,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="10">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -7747,7 +7788,7 @@
       </c>
       <c r="D13" s="10">
         <f>0.85*D10</f>
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
@@ -7785,7 +7826,7 @@
       </c>
       <c r="D14" s="10">
         <f>0.15*D10</f>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="11"/>

--- a/excel_task_newopt.xlsx
+++ b/excel_task_newopt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\laris\ev4eu_algorithms\opt_communities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8841B52-6031-4874-898B-3C714E28286D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CAF4F8-D66F-4BA4-B1FB-472D33937141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A03A3C32-E6CC-445A-8CB9-D8DD32D2ACA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A03A3C32-E6CC-445A-8CB9-D8DD32D2ACA7}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralInfo" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="42">
   <si>
     <t>Load ID</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Slack Gen Component</t>
   </si>
   <si>
-    <t>Upper SOC limit (kW)</t>
-  </si>
-  <si>
-    <t>Lower SOC limit (kW)</t>
-  </si>
-  <si>
     <t>Target (%)</t>
   </si>
   <si>
@@ -189,6 +183,9 @@
   </si>
   <si>
     <t>Exp Max (kW)</t>
+  </si>
+  <si>
+    <t>Lower SOC limit (kWh)</t>
   </si>
 </sst>
 </file>
@@ -909,7 +906,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -917,7 +914,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>500</v>
@@ -4819,8 +4816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FCD69E-F37C-4134-B033-CE38AC309020}">
   <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:AC31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5398,7 +5395,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -5733,99 +5730,99 @@
         <v>30</v>
       </c>
       <c r="F19" s="11">
-        <f>$D$23*F18</f>
+        <f t="shared" ref="F19:AC19" si="1">$D$23*F18</f>
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f>$D$23*G18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <f>$D$23*H18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <f>$D$23*I18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <f>$D$23*J18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f>$D$23*K18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f>$D$23*L18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M19" s="11">
-        <f>$D$23*M18</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N19" s="11">
-        <f>$D$23*N18</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O19" s="11">
-        <f>$D$23*O18</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P19" s="11">
-        <f>$D$23*P18</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="Q19" s="11">
-        <f>$D$23*Q18</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="R19" s="11">
-        <f>$D$23*R18</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S19" s="11">
-        <f>$D$23*S18</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="T19" s="11">
-        <f>$D$23*T18</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="U19" s="11">
-        <f>$D$23*U18</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="V19" s="11">
-        <f>$D$23*V18</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="W19" s="11">
-        <f>$D$23*W18</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="X19" s="11">
-        <f>$D$23*X18</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Y19" s="11">
-        <f>$D$23*Y18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z19" s="11">
-        <f>$D$23*Z18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA19" s="11">
-        <f>$D$23*AA18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB19" s="11">
-        <f>$D$23*AB18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC19" s="11">
-        <f>$D$23*AC18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5987,7 +5984,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="10">
         <v>2</v>
@@ -6252,7 +6249,7 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6537,84 +6534,32 @@
       <c r="D4" s="9">
         <v>6</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="M4" s="11">
-        <v>-0.2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="O4" s="11">
-        <v>-0.3</v>
-      </c>
-      <c r="P4" s="11">
-        <v>-0.2</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="R4" s="11">
-        <v>-0.35</v>
-      </c>
-      <c r="S4" s="11">
-        <v>-0.25</v>
-      </c>
-      <c r="T4" s="11">
-        <v>-0.25</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="V4" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="W4" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="X4" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>-0.3</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>-0.3</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>-0.25</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="AD4" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
@@ -6622,7 +6567,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="10">
         <v>85</v>
@@ -6963,13 +6908,8 @@
       <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="10">
-        <f>0.85*D11</f>
-        <v>8.5</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
@@ -7003,7 +6943,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D15" s="10">
         <f>0.15*D11</f>
@@ -7127,7 +7067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55289A4E-AA87-4746-80EF-3E4199031D27}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -7319,80 +7259,80 @@
       <c r="D3" s="9">
         <v>8</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>15</v>
+      <c r="E3" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L3" s="11">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="11">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="N3" s="11">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="O3" s="11">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="11">
-        <v>-0.35</v>
+        <v>1</v>
       </c>
       <c r="R3" s="11">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S3" s="11">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="T3" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="U3" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V3" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W3" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X3" s="11">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="11">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="11">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -7401,86 +7341,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10">
         <v>85</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>1</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>1</v>
-      </c>
-      <c r="T4" s="11">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11">
-        <v>1</v>
-      </c>
-      <c r="V4" s="11">
-        <v>1</v>
-      </c>
-      <c r="W4" s="11">
-        <v>1</v>
-      </c>
-      <c r="X4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>1</v>
-      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
@@ -7598,12 +7464,8 @@
       <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10">
-        <v>11</v>
-      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -7780,16 +7642,9 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
-      <c r="B13" s="11">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10">
-        <f>0.85*D10</f>
-        <v>34</v>
-      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -7822,7 +7677,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="10">
         <f>0.15*D10</f>
@@ -7879,7 +7734,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="16"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -7917,80 +7772,80 @@
       <c r="D17" s="9">
         <v>10</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>15</v>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F17" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J17" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K17" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="11">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="11">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="N17" s="11">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="O17" s="11">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="11">
-        <v>-0.35</v>
+        <v>1</v>
       </c>
       <c r="R17" s="11">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="T17" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="U17" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="V17" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W17" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X17" s="11">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="11">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="11">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
@@ -7999,86 +7854,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="10">
         <v>85</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>1</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11">
-        <v>1</v>
-      </c>
-      <c r="N18" s="11">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
-        <v>1</v>
-      </c>
-      <c r="P18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>1</v>
-      </c>
-      <c r="R18" s="11">
-        <v>1</v>
-      </c>
-      <c r="S18" s="11">
-        <v>1</v>
-      </c>
-      <c r="T18" s="11">
-        <v>1</v>
-      </c>
-      <c r="U18" s="11">
-        <v>1</v>
-      </c>
-      <c r="V18" s="11">
-        <v>1</v>
-      </c>
-      <c r="W18" s="11">
-        <v>1</v>
-      </c>
-      <c r="X18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>1</v>
-      </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -8196,12 +7977,8 @@
       <c r="B22" s="11">
         <v>6</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="10">
-        <v>11</v>
-      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="11"/>
@@ -8383,16 +8160,9 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
-      <c r="B27" s="11">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="10">
-        <f>0.85*D24</f>
-        <v>20.399999999999999</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="11"/>
@@ -8426,7 +8196,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D28" s="10">
         <f>0.15*D24</f>
